--- a/data/lake-geneva/lake-geneva-hatching.xlsx
+++ b/data/lake-geneva/lake-geneva-hatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-geneva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D766380-4F3E-3649-90F8-5CFCDF339F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814BC52-687A-7845-AF0B-7ED321F0F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-geneva-hatching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -29,6 +29,69 @@
   </si>
   <si>
     <t>abundance</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # date: date of capture</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Dan Yule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # abundance: number of daily larvae captured</t>
   </si>
 </sst>
 </file>
@@ -870,88 +933,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2016</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B29" s="1">
         <v>42464</v>
       </c>
-      <c r="C2">
+      <c r="C29">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2016</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B30" s="1">
         <v>42467</v>
       </c>
-      <c r="C3">
+      <c r="C30">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2016</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B31" s="1">
         <v>42472</v>
       </c>
-      <c r="C4">
+      <c r="C31">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B32" s="1">
         <v>42474</v>
       </c>
-      <c r="C5">
+      <c r="C32">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B33" s="1">
         <v>42478</v>
       </c>
-      <c r="C6">
+      <c r="C33">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2016</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B34" s="1">
         <v>42481</v>
       </c>
-      <c r="C7">
+      <c r="C34">
         <v>14</v>
       </c>
     </row>
